--- a/ONCHO/Entomological survey Survey/Nigeria/2024/Adamawa/ng_oncho_2026_2_river_inspection_adw.xlsx
+++ b/ONCHO/Entomological survey Survey/Nigeria/2024/Adamawa/ng_oncho_2026_2_river_inspection_adw.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Entomological survey Survey\Nigeria\2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Entomological survey Survey\Nigeria\2024\Adamawa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EEAF32E-003C-4CA3-AC28-F8D0207604E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08DB222A-21D6-472B-99CA-1680F1091524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="246">
   <si>
     <t>type</t>
   </si>
@@ -508,276 +508,9 @@
     <t>The river cannot be fast and slow at the same time</t>
   </si>
   <si>
-    <t>ng_oncho_2026_2_river_insp_bau</t>
-  </si>
-  <si>
-    <t>(Bauchi) 2. River inspection Form</t>
-  </si>
-  <si>
-    <t>BAUCHI</t>
-  </si>
-  <si>
-    <t>ALKALERI</t>
-  </si>
-  <si>
-    <t>BOGORO</t>
-  </si>
-  <si>
-    <t>DARAZO</t>
-  </si>
-  <si>
-    <t>DASS</t>
-  </si>
-  <si>
-    <t>GAMAWA</t>
-  </si>
-  <si>
-    <t>GANJUWA</t>
-  </si>
-  <si>
-    <t>KIRFI</t>
-  </si>
-  <si>
-    <t>MISAU</t>
-  </si>
-  <si>
-    <t>NINGI</t>
-  </si>
-  <si>
-    <t>SHIRA</t>
-  </si>
-  <si>
-    <t>TORO</t>
-  </si>
-  <si>
-    <t>ZAKI</t>
-  </si>
-  <si>
-    <t>GIADE</t>
-  </si>
-  <si>
-    <t>TAFAWA-BALEWA</t>
-  </si>
-  <si>
-    <t>WARJI</t>
-  </si>
-  <si>
     <t>community</t>
   </si>
   <si>
-    <t>BAKUREJI</t>
-  </si>
-  <si>
-    <t>DAGARAU</t>
-  </si>
-  <si>
-    <t>KWALA</t>
-  </si>
-  <si>
-    <t>YELWAN GALAMBI</t>
-  </si>
-  <si>
-    <t>BIRIM</t>
-  </si>
-  <si>
-    <t>MIRI</t>
-  </si>
-  <si>
-    <t>DOGON KANIA</t>
-  </si>
-  <si>
-    <t>SABON GARI</t>
-  </si>
-  <si>
-    <t>DARRARI</t>
-  </si>
-  <si>
-    <t>LIRINI</t>
-  </si>
-  <si>
-    <t>DADINGA</t>
-  </si>
-  <si>
-    <t>MIYA B</t>
-  </si>
-  <si>
-    <t>NASARAWA</t>
-  </si>
-  <si>
-    <t>CHINKANI</t>
-  </si>
-  <si>
-    <t>BARA</t>
-  </si>
-  <si>
-    <t>BUNDURU</t>
-  </si>
-  <si>
-    <t>FAFAN FULANI</t>
-  </si>
-  <si>
-    <t>ZINDI/MISAU</t>
-  </si>
-  <si>
-    <t>KAFIN LEMO</t>
-  </si>
-  <si>
-    <t>KAFIN ZAKI</t>
-  </si>
-  <si>
-    <t>RAFIN CHIAWO</t>
-  </si>
-  <si>
-    <t>SAMA</t>
-  </si>
-  <si>
-    <t>UNGUWAR MADAIKI</t>
-  </si>
-  <si>
-    <t>BANGIRE</t>
-  </si>
-  <si>
-    <t>DINDIBUS</t>
-  </si>
-  <si>
-    <t>DISINA B</t>
-  </si>
-  <si>
-    <t>ZIGAU</t>
-  </si>
-  <si>
-    <t>KARDAM B</t>
-  </si>
-  <si>
-    <t>GUMAU</t>
-  </si>
-  <si>
-    <t>LAME</t>
-  </si>
-  <si>
-    <t>RISHI</t>
-  </si>
-  <si>
-    <t>RUHU</t>
-  </si>
-  <si>
-    <t>GABANGA A</t>
-  </si>
-  <si>
-    <t>SANDIGALOU</t>
-  </si>
-  <si>
-    <t>TIKIRZE</t>
-  </si>
-  <si>
-    <t>BAU_ALK_N_001</t>
-  </si>
-  <si>
-    <t>BAU_ALK_N_002</t>
-  </si>
-  <si>
-    <t>BAU_ALK_N_003</t>
-  </si>
-  <si>
-    <t>BAU_BAU_N_004</t>
-  </si>
-  <si>
-    <t>BAU_BAU_N_005</t>
-  </si>
-  <si>
-    <t>BAU_BOG_N_006</t>
-  </si>
-  <si>
-    <t>BAU_DAR_N_007</t>
-  </si>
-  <si>
-    <t>BAU_DAS_N_008</t>
-  </si>
-  <si>
-    <t>BAU_GAM_N_009</t>
-  </si>
-  <si>
-    <t>BAU_GAM_N_010</t>
-  </si>
-  <si>
-    <t>BAU_GAM_N_011</t>
-  </si>
-  <si>
-    <t>BAU_GAM_N_012</t>
-  </si>
-  <si>
-    <t>BAU_KIR_N_013</t>
-  </si>
-  <si>
-    <t>BAU_KIR_N_014</t>
-  </si>
-  <si>
-    <t>BAU_MIS_N_015</t>
-  </si>
-  <si>
-    <t>BAU_NIN_N_016</t>
-  </si>
-  <si>
-    <t>BAU_NIN_N_017</t>
-  </si>
-  <si>
-    <t>BAU_NIN_N_018</t>
-  </si>
-  <si>
-    <t>BAU_NIN_N_019</t>
-  </si>
-  <si>
-    <t>BAU_SHI_N_020</t>
-  </si>
-  <si>
-    <t>BAU_TOR_N_021</t>
-  </si>
-  <si>
-    <t>BAU_TOR_N_022</t>
-  </si>
-  <si>
-    <t>BAU_TOR_N_023</t>
-  </si>
-  <si>
-    <t>BAU_TOR_N_024</t>
-  </si>
-  <si>
-    <t>BAU_ZAK_N_025</t>
-  </si>
-  <si>
-    <t>BAU_ZAK_N_026</t>
-  </si>
-  <si>
-    <t>BAU_KIR_M_027</t>
-  </si>
-  <si>
-    <t>BAU_ALK_M_028</t>
-  </si>
-  <si>
-    <t>BAU_GIA_M_029</t>
-  </si>
-  <si>
-    <t>BAU_GAN_M_030</t>
-  </si>
-  <si>
-    <t>BAU_NIN_M_031</t>
-  </si>
-  <si>
-    <t>BAU_SHI_M_032</t>
-  </si>
-  <si>
-    <t>BAU_TAF_M_033</t>
-  </si>
-  <si>
-    <t>BAU_SHI_M_034</t>
-  </si>
-  <si>
-    <t>BAU_WAR_M_035</t>
-  </si>
-  <si>
-    <t>BAU_SHI_M_036</t>
-  </si>
-  <si>
     <t>select_one state</t>
   </si>
   <si>
@@ -797,6 +530,255 @@
   </si>
   <si>
     <t>community = ${r_community}</t>
+  </si>
+  <si>
+    <t>(Adamawa) 2. River inspection Form</t>
+  </si>
+  <si>
+    <t>ng_oncho_2026_2_river_insp_adw</t>
+  </si>
+  <si>
+    <t>ADAMAWA</t>
+  </si>
+  <si>
+    <t>DEMSA</t>
+  </si>
+  <si>
+    <t>FUFORE</t>
+  </si>
+  <si>
+    <t>GOMBI</t>
+  </si>
+  <si>
+    <t>HONG</t>
+  </si>
+  <si>
+    <t>JADA</t>
+  </si>
+  <si>
+    <t>LAMURDE</t>
+  </si>
+  <si>
+    <t>MADAGALI</t>
+  </si>
+  <si>
+    <t>MAIHA</t>
+  </si>
+  <si>
+    <t>MICHIKA</t>
+  </si>
+  <si>
+    <t>MUBI NORTH</t>
+  </si>
+  <si>
+    <t>MUBI SOUTH</t>
+  </si>
+  <si>
+    <t>NUMAN</t>
+  </si>
+  <si>
+    <t>SHELLENG</t>
+  </si>
+  <si>
+    <t>SONG</t>
+  </si>
+  <si>
+    <t>TOUNGO</t>
+  </si>
+  <si>
+    <t>YOLA NORTH</t>
+  </si>
+  <si>
+    <t>DILLI</t>
+  </si>
+  <si>
+    <t>KARLAHI</t>
+  </si>
+  <si>
+    <t>KOCHEL</t>
+  </si>
+  <si>
+    <t>WURO BABBA</t>
+  </si>
+  <si>
+    <t>GUYAKU</t>
+  </si>
+  <si>
+    <t>PUBA</t>
+  </si>
+  <si>
+    <t>ZHEDINYI</t>
+  </si>
+  <si>
+    <t>TISEL</t>
+  </si>
+  <si>
+    <t>BOLLERE</t>
+  </si>
+  <si>
+    <t>DAMAI</t>
+  </si>
+  <si>
+    <t>KWATAMA DAFFA</t>
+  </si>
+  <si>
+    <t>JAMTARI</t>
+  </si>
+  <si>
+    <t>KAPSULE</t>
+  </si>
+  <si>
+    <t>KASSU</t>
+  </si>
+  <si>
+    <t>SINA MALA</t>
+  </si>
+  <si>
+    <t>MUCHALLA</t>
+  </si>
+  <si>
+    <t>WURO HAMMAGU</t>
+  </si>
+  <si>
+    <t>BOKKI</t>
+  </si>
+  <si>
+    <t>DABEWO</t>
+  </si>
+  <si>
+    <t>BA AWO</t>
+  </si>
+  <si>
+    <t>BARANGA</t>
+  </si>
+  <si>
+    <t>GIDANMBIRI</t>
+  </si>
+  <si>
+    <t>GUMTI</t>
+  </si>
+  <si>
+    <t>KOGIN BABA1</t>
+  </si>
+  <si>
+    <t>KOGIN BABA2</t>
+  </si>
+  <si>
+    <t>MAYOBIRIJI</t>
+  </si>
+  <si>
+    <t>NATRIDE</t>
+  </si>
+  <si>
+    <t>TIMBO</t>
+  </si>
+  <si>
+    <t>WURO JATAU</t>
+  </si>
+  <si>
+    <t>YOLA (DOUBELI)</t>
+  </si>
+  <si>
+    <t>ADA_GOM_N_001</t>
+  </si>
+  <si>
+    <t>ADA_HON_N_002</t>
+  </si>
+  <si>
+    <t>ADA_HON_N_003</t>
+  </si>
+  <si>
+    <t>ADA_MIC_M_004</t>
+  </si>
+  <si>
+    <t>ADA_MUN_N_005</t>
+  </si>
+  <si>
+    <t>ADA_MUS_M_006</t>
+  </si>
+  <si>
+    <t>ADA_MAD_N_007</t>
+  </si>
+  <si>
+    <t>ADA_MAD_M_008</t>
+  </si>
+  <si>
+    <t>ADA_MAD_M_009</t>
+  </si>
+  <si>
+    <t>ADA_TOU_N_010</t>
+  </si>
+  <si>
+    <t>ADA_TOU_N_011</t>
+  </si>
+  <si>
+    <t>ADA_TOU_N_012</t>
+  </si>
+  <si>
+    <t>ADA_TOU_M_013</t>
+  </si>
+  <si>
+    <t>ADA_TOU_M_014</t>
+  </si>
+  <si>
+    <t>ADA_TOU_M_015</t>
+  </si>
+  <si>
+    <t>ADA_DEM_N_016</t>
+  </si>
+  <si>
+    <t>ADA_JAD_N_017</t>
+  </si>
+  <si>
+    <t>ADA_TOU_M_018</t>
+  </si>
+  <si>
+    <t>ADA_DEM_N_019</t>
+  </si>
+  <si>
+    <t>ADA_SHE_N_020</t>
+  </si>
+  <si>
+    <t>ADA_LAM_N_021</t>
+  </si>
+  <si>
+    <t>ADA_MAI_N_022</t>
+  </si>
+  <si>
+    <t>ADA_SON_N_023</t>
+  </si>
+  <si>
+    <t>ADA_SON_N_024</t>
+  </si>
+  <si>
+    <t>ADA_FUR_N_025</t>
+  </si>
+  <si>
+    <t>ADA_FUR_N_026</t>
+  </si>
+  <si>
+    <t>ADA_YON_N_027</t>
+  </si>
+  <si>
+    <t>ADA_TOU_N_028</t>
+  </si>
+  <si>
+    <t>ADA_NUM_M_029</t>
+  </si>
+  <si>
+    <t>ADA_TOU_M_030</t>
+  </si>
+  <si>
+    <t>ADA_TOU_M_031</t>
+  </si>
+  <si>
+    <t>ADA_FUR_M_032</t>
+  </si>
+  <si>
+    <t>ADA_MAI_M_033</t>
+  </si>
+  <si>
+    <t>ADA_MAI_M_034</t>
   </si>
 </sst>
 </file>
@@ -1332,7 +1314,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -1427,7 +1409,7 @@
     </row>
     <row r="3" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>245</v>
+        <v>156</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>108</v>
@@ -1450,7 +1432,7 @@
     </row>
     <row r="4" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>246</v>
+        <v>157</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>109</v>
@@ -1469,13 +1451,13 @@
       </c>
       <c r="K4" s="7"/>
       <c r="L4" s="10" t="s">
-        <v>249</v>
+        <v>160</v>
       </c>
       <c r="M4" s="7"/>
     </row>
     <row r="5" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>247</v>
+        <v>158</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>110</v>
@@ -1494,13 +1476,13 @@
       </c>
       <c r="K5" s="7"/>
       <c r="L5" s="10" t="s">
-        <v>250</v>
+        <v>161</v>
       </c>
       <c r="M5" s="7"/>
     </row>
     <row r="6" spans="1:13" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>248</v>
+        <v>159</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>38</v>
@@ -1519,7 +1501,7 @@
       </c>
       <c r="K6" s="7"/>
       <c r="L6" s="10" t="s">
-        <v>251</v>
+        <v>162</v>
       </c>
       <c r="M6" s="7"/>
     </row>
@@ -2166,9 +2148,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F170"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A107" sqref="A107"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A32" sqref="A32:XFD119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2195,7 +2177,7 @@
         <v>106</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -2482,10 +2464,10 @@
         <v>107</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -2497,13 +2479,13 @@
         <v>106</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="D34" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -2511,13 +2493,13 @@
         <v>106</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="D35" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -2525,13 +2507,13 @@
         <v>106</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="D36" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -2539,13 +2521,13 @@
         <v>106</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="D37" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -2553,13 +2535,13 @@
         <v>106</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="D38" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -2567,13 +2549,13 @@
         <v>106</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="D39" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -2581,13 +2563,13 @@
         <v>106</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="D40" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -2595,13 +2577,13 @@
         <v>106</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="D41" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -2609,13 +2591,13 @@
         <v>106</v>
       </c>
       <c r="B42" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="D42" t="s">
         <v>165</v>
-      </c>
-      <c r="C42" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="D42" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -2623,13 +2605,13 @@
         <v>106</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D43" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -2637,13 +2619,13 @@
         <v>106</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="C44" s="21" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="D44" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -2651,13 +2633,13 @@
         <v>106</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="D45" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -2665,13 +2647,13 @@
         <v>106</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="C46" s="21" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="D46" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -2679,13 +2661,13 @@
         <v>106</v>
       </c>
       <c r="B47" s="21" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="C47" s="21" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="D47" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -2693,13 +2675,13 @@
         <v>106</v>
       </c>
       <c r="B48" s="21" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="C48" s="21" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="D48" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -2707,539 +2689,540 @@
         <v>106</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="C49" s="21" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="D49" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="20"/>
       <c r="B50" s="21"/>
       <c r="C50" s="21"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="C51" s="21" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="E51" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="B52" s="21" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="C52" s="21" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="E52" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="B53" s="21" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="C53" s="21" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="E53" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="B54" s="21" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="C54" s="21" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="E54" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="B55" s="21" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="C55" s="21" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="E55" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="B56" s="21" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="C56" s="21" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="E56" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="B57" s="21" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="C57" s="21" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="E57" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="B58" s="21" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="C58" s="21" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="E58" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="B59" s="21" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C59" s="21" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="E59" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="B60" s="21" t="s">
-        <v>162</v>
+        <v>189</v>
       </c>
       <c r="C60" s="21" t="s">
-        <v>162</v>
+        <v>189</v>
       </c>
       <c r="E60" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="B61" s="21" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="C61" s="21" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="E61" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="B62" s="21" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="C62" s="21" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="E62" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="B63" s="21" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="C63" s="21" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="E63" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="B64" s="21" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="C64" s="21" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="E64" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>155</v>
+      </c>
+      <c r="B65" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="C65" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="E65" t="s">
         <v>173</v>
-      </c>
-      <c r="B65" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="C65" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="E65" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>155</v>
+      </c>
+      <c r="B66" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="C66" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="E66" t="s">
         <v>173</v>
-      </c>
-      <c r="B66" s="21" t="s">
-        <v>188</v>
-      </c>
-      <c r="C66" s="21" t="s">
-        <v>188</v>
-      </c>
-      <c r="E66" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>155</v>
+      </c>
+      <c r="B67" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="C67" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="E67" t="s">
         <v>173</v>
-      </c>
-      <c r="B67" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="C67" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="E67" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="B68" s="21" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="C68" s="21" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="E68" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="B69" s="21" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="C69" s="21" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="E69" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="B70" s="21" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="C70" s="21" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="E70" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="B71" s="21" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="C71" s="21" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="E71" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="B72" s="21" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="C72" s="21" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="E72" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="B73" s="21" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="C73" s="21" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="E73" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="B74" s="21" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="C74" s="21" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="E74" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="B75" s="21" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="C75" s="21" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="E75" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="B76" s="21" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="C76" s="21" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="E76" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="B77" s="21" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="C77" s="21" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="E77" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="B78" s="21" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="C78" s="21" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="E78" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="B79" s="21" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="C79" s="21" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="E79" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="B80" s="21" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="C80" s="21" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="E80" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="B81" s="21" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="C81" s="21" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="E81" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="B82" s="21" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="C82" s="21" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="E82" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="B83" s="21" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="C83" s="21" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="E83" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="B84" s="21" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C84" s="21" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="E84" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>173</v>
-      </c>
-      <c r="B85" s="21" t="s">
-        <v>207</v>
-      </c>
-      <c r="C85" s="21" t="s">
-        <v>207</v>
-      </c>
-      <c r="E85" t="s">
-        <v>169</v>
-      </c>
+      <c r="B85" s="21"/>
+      <c r="C85" s="21"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="20" t="s">
-        <v>173</v>
+        <v>38</v>
       </c>
       <c r="B86" s="21" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C86" s="21" t="s">
-        <v>208</v>
-      </c>
-      <c r="E86" t="s">
-        <v>169</v>
+        <v>212</v>
+      </c>
+      <c r="F86" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B87" s="21"/>
-      <c r="C87" s="21"/>
+      <c r="A87" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B87" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="C87" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="F87" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="20" t="s">
         <v>38</v>
       </c>
       <c r="B88" s="21" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="C88" s="21" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="F88" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -3247,13 +3230,13 @@
         <v>38</v>
       </c>
       <c r="B89" s="21" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="C89" s="21" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="F89" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -3261,13 +3244,13 @@
         <v>38</v>
       </c>
       <c r="B90" s="21" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="C90" s="21" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="F90" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -3275,13 +3258,13 @@
         <v>38</v>
       </c>
       <c r="B91" s="21" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C91" s="21" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="F91" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -3289,13 +3272,13 @@
         <v>38</v>
       </c>
       <c r="B92" s="21" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="C92" s="21" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="F92" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -3303,13 +3286,13 @@
         <v>38</v>
       </c>
       <c r="B93" s="21" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C93" s="21" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F93" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -3317,13 +3300,13 @@
         <v>38</v>
       </c>
       <c r="B94" s="21" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C94" s="21" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="F94" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -3331,13 +3314,13 @@
         <v>38</v>
       </c>
       <c r="B95" s="21" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C95" s="21" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="F95" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -3345,13 +3328,13 @@
         <v>38</v>
       </c>
       <c r="B96" s="21" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="C96" s="21" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="F96" t="s">
-        <v>162</v>
+        <v>209</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -3359,13 +3342,13 @@
         <v>38</v>
       </c>
       <c r="B97" s="21" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="C97" s="21" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="F97" t="s">
-        <v>183</v>
+        <v>207</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -3373,13 +3356,13 @@
         <v>38</v>
       </c>
       <c r="B98" s="21" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C98" s="21" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="F98" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -3387,13 +3370,13 @@
         <v>38</v>
       </c>
       <c r="B99" s="21" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C99" s="21" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="F99" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -3401,13 +3384,13 @@
         <v>38</v>
       </c>
       <c r="B100" s="21" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="C100" s="21" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="F100" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -3415,13 +3398,13 @@
         <v>38</v>
       </c>
       <c r="B101" s="21" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C101" s="21" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="F101" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -3429,13 +3412,13 @@
         <v>38</v>
       </c>
       <c r="B102" s="21" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="C102" s="21" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="F102" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -3443,13 +3426,13 @@
         <v>38</v>
       </c>
       <c r="B103" s="21" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C103" s="21" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="F103" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -3457,13 +3440,13 @@
         <v>38</v>
       </c>
       <c r="B104" s="21" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="C104" s="21" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="F104" t="s">
-        <v>194</v>
+        <v>166</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -3471,13 +3454,13 @@
         <v>38</v>
       </c>
       <c r="B105" s="21" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C105" s="21" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="F105" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -3485,13 +3468,13 @@
         <v>38</v>
       </c>
       <c r="B106" s="21" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="C106" s="21" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="F106" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -3499,13 +3482,13 @@
         <v>38</v>
       </c>
       <c r="B107" s="21" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C107" s="21" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="F107" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -3513,13 +3496,13 @@
         <v>38</v>
       </c>
       <c r="B108" s="21" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="C108" s="21" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="F108" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -3527,13 +3510,13 @@
         <v>38</v>
       </c>
       <c r="B109" s="21" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="C109" s="21" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="F109" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -3541,13 +3524,13 @@
         <v>38</v>
       </c>
       <c r="B110" s="21" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="C110" s="21" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="F110" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -3555,13 +3538,13 @@
         <v>38</v>
       </c>
       <c r="B111" s="21" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="C111" s="21" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F111" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -3569,13 +3552,13 @@
         <v>38</v>
       </c>
       <c r="B112" s="21" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="C112" s="21" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="F112" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -3583,13 +3566,13 @@
         <v>38</v>
       </c>
       <c r="B113" s="21" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="C113" s="21" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="F113" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -3597,13 +3580,13 @@
         <v>38</v>
       </c>
       <c r="B114" s="21" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="C114" s="21" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="F114" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -3611,13 +3594,13 @@
         <v>38</v>
       </c>
       <c r="B115" s="21" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="C115" s="21" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="F115" t="s">
-        <v>177</v>
+        <v>203</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -3625,13 +3608,13 @@
         <v>38</v>
       </c>
       <c r="B116" s="21" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C116" s="21" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="F116" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -3639,10 +3622,10 @@
         <v>38</v>
       </c>
       <c r="B117" s="21" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="C117" s="21" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="F117" t="s">
         <v>185</v>
@@ -3653,13 +3636,13 @@
         <v>38</v>
       </c>
       <c r="B118" s="21" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="C118" s="21" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="F118" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -3667,70 +3650,34 @@
         <v>38</v>
       </c>
       <c r="B119" s="21" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="C119" s="21" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="F119" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B120" s="21" t="s">
-        <v>241</v>
-      </c>
-      <c r="C120" s="21" t="s">
-        <v>241</v>
-      </c>
-      <c r="F120" t="s">
-        <v>201</v>
-      </c>
+      <c r="A120" s="20"/>
+      <c r="B120" s="21"/>
+      <c r="C120" s="21"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B121" s="21" t="s">
-        <v>242</v>
-      </c>
-      <c r="C121" s="21" t="s">
-        <v>242</v>
-      </c>
-      <c r="F121" t="s">
-        <v>198</v>
-      </c>
+      <c r="A121" s="20"/>
+      <c r="B121" s="21"/>
+      <c r="C121" s="21"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B122" s="21" t="s">
-        <v>243</v>
-      </c>
-      <c r="C122" s="21" t="s">
-        <v>243</v>
-      </c>
-      <c r="F122" t="s">
-        <v>206</v>
-      </c>
+      <c r="A122" s="20"/>
+      <c r="B122" s="21"/>
+      <c r="C122" s="21"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B123" s="21" t="s">
-        <v>244</v>
-      </c>
-      <c r="C123" s="21" t="s">
-        <v>244</v>
-      </c>
-      <c r="F123" t="s">
-        <v>199</v>
-      </c>
+      <c r="A123" s="20"/>
+      <c r="B123" s="21"/>
+      <c r="C123" s="21"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B124" s="21"/>
@@ -3931,7 +3878,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3955,10 +3902,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>21</v>
